--- a/biology/Virologie/Virus_à_ADN/Virus_à_ADN.xlsx
+++ b/biology/Virologie/Virus_à_ADN/Virus_à_ADN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_%C3%A0_ADN</t>
+          <t>Virus_à_ADN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un virus à ADN est un virus qui possède de l'ADN dans son génome et n'utilise pas d'intermédiaire à ARN durant sa réplication. Il se réplique en utilisant une ADN polymérase ADN-dépendante. Leur ADN peut être soit à simple brin (SsDNA) ou à double brin (dsDNA), ces derniers étant les plus courants.
 Les virus à ADN appartiennent soit au Groupe I soit au Groupe II du système de classification des virus connu sous le nom de classification de Baltimore. Bien que certains virus du groupe VII tels que celui de l'hépatite B contiennent un génome contenant de l’ADN, ils ne sont pas considérés comme des virus à ADN selon la classification de Baltimore, mais plutôt des rétrovirus parce qu'ils se répliquent par l'intermédiaire d'un ARN.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virus_%C3%A0_ADN</t>
+          <t>Virus_à_ADN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Groupe I – Virus à ADN double brin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les virus à ADN double brin constituent le realm des Duplodnaviria.
 Ordre des Caudovirales
@@ -564,7 +578,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Virus_%C3%A0_ADN</t>
+          <t>Virus_à_ADN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -582,7 +596,9 @@
           <t>Groupe II – Virus à ADN simple brin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Familles des bactériophages (non assignées à un ordre)
 Familles des Inoviridae
@@ -603,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Virus_%C3%A0_ADN</t>
+          <t>Virus_à_ADN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,9 +637,11 @@
           <t>Propositions de révision de la taxonomie  des Herpesviridae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virus de l'herpès sont des virus à ADN double brin classés dans le Groupe I. Le groupe d'étude des Herpesviridae a proposé que les virus de l'herpès soient reclassés dans le groupe nouvellement défini des Herpesvirus. Ils proposent également que des Herpesviridae actuellement non assignés à un groupe soient classés dans le nouveau groupe des virus de l'herpès. En outre, ils proposent que les familles Alloherpesviridae et Malacoherpesviridae soient également reclassées dans le groupe nouveau[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virus de l'herpès sont des virus à ADN double brin classés dans le Groupe I. Le groupe d'étude des Herpesviridae a proposé que les virus de l'herpès soient reclassés dans le groupe nouvellement défini des Herpesvirus. Ils proposent également que des Herpesviridae actuellement non assignés à un groupe soient classés dans le nouveau groupe des virus de l'herpès. En outre, ils proposent que les familles Alloherpesviridae et Malacoherpesviridae soient également reclassées dans le groupe nouveau.
 </t>
         </is>
       </c>
